--- a/Chatbot/train_tools/qna/train_data.xlsx
+++ b/Chatbot/train_tools/qna/train_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GwangjuScienceAcademy\R&amp;E\chatbot\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GwangjuScienceAcademy\R&amp;E\GSA2022RNE\Chatbot\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53BD8D-5C4F-4F57-B737-AAF9080EF9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0680A48-E20E-4ADE-AAD2-C16E52BA420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="396" windowWidth="23040" windowHeight="13644" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="7356" yWindow="3300" windowWidth="23040" windowHeight="13644" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,30 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>욕하면 나빠요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕하지 마세요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 그렇게 싫나요ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화내지 마세요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬퍼요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화풀이는 나빠요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,47 +95,321 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광곽은 어떤 학교인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팡팍은 어떤 학교인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광주과학고등학교는 광주광역시 북구 오룡동에 위치한 영재학교입니다. 성실과 탐구를 교훈으로 하는 학교에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광주과학고등학교는 어떤 학교야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광곽은 어떤 학교야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팡팍은 어떤 학교야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 봉사활동에 필요한 시간은 120시간으로, 광주과학고등학교 옆에 있는 과학관에서 많은 학생들이 봉사 점수를 채웁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>봉사활동 뭐해?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사활동 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사활동 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사활동 얘기해봐</t>
+    <t>욕하지 마요 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송해요, 무슨 말인지 모르겠어요. 조금 더 공부 할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 사용시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관은 4시 반까지 운영합니다^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"광주광역시 북구 건국동 첨단과기로 215" 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주과학고등학교 주소는 어디에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주영재학교는 언제 개교했나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교장선생님은 누구세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이강길" 선생님이십니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1984년에 개교하였고, 2012년에 영재학교로 전환됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 신입생은 몇기에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40기입니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사일정 알려줘요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 웹사이트에서 확인하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방과후학교는 어떻게 운영되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어는 선택, 나머지는 모두 필수로 운영됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 프론티어가 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사는 무슨 과목 봐요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사시간은 몇시간 해야되죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교내대회는 어떤게 있죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lms와 학교 웹사이트에 주기적으로 공지되니, 확인해주시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사시간은 120시간을 요구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말고사는 무슨 과목 봐요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기말고사는 수학, 물리, 화학, 생명, 지학, 국어, 영어, 사회(역사), 정보, 물리실험, 화학실험, 생명실험 총 13과목 봅니다. (수학은 2과목 봅니다!) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사는 수학, 물리, 화학, 생명, 지학, 국어, 영어, 사회(역사), 정보 총 10과목 봅니다. (수학은 2과목 봅니다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생들 데리고 미국가서 배우고, 놀고 오는 활동입니다! 자세한 내용은 학교 홈페이지를 참고해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서록은 몇 권 써야되요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30권을 요구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어시험은 토익, 텝스, 토플을 볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 요건 영어 시험은 뭐가 있죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기숙사 방 배정은 어떻게 해요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 기숙사만 반 친구들과 매칭시켜주고, 이후로는 완전 랜덤으로 뽑습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회 회칙은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 종류 알려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.gsatime.kr/tree.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기숙사 사칙은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기숙사 사칙은 계속해서 바뀌며 공지도 잘 해주지 않기 때문에 직접 확인하셔야 합니다. 불편을 드려 죄송합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 기준으로, 타키온(물리), 프사이(물리), 켐텍(화학), 로크(화학), 바이오켐(생명), 테라(지학), 이데아(정보), SCV(공학), 다빈치(융합)이 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회 기구 알려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회 청원 알려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.gsatime.kr/petition/</t>
+  </si>
+  <si>
+    <t>기상곡 신청하고 싶어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.gsatime.kr/wake.php</t>
+  </si>
+  <si>
+    <t>취침시간은 몇 시 인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 10분 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상시간은 몇 시 인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 기상, 8시 10분까지 퇴실입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인1특기 종류는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구, 야구 등과 같은 체육 과목과, 피아노, 댄스 등과 같은 예술 과목이 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;E 활동은 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀을 짜서, 주제를 정하고, 관련 내용을 배워서, 결과를 도출합니다. 팀은 1학년은 랜덤, 2학년은 직접 정해서 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력단련실은 언제 사용하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하실때 언제든 사용하세요 ^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;E 주제는 어떻게 정하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1지망, 2지망 순으로 과목을 정하고, 과목과 관련된 주제를 선정하여 제출하면 선생님들이 그걸 보시고 선택하십니다. 원하시는 과목 걸리시길 빌게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨래는 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사 시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 오전 1차, 일요일 야간 2차에 자유시간을 가집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 오후 4시, 격주로 이루어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 이후 일요일 야간 1차까지 들어오셔야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일, 목요일 아침에 1층에 빨래를 맡기시면, 그날 혹은 그 다음날 빨래가 돌아옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸메는 언제 바뀌죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 끝날때마다 바꿉니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매점은 언제 이용하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제든지요^^ 다만 10시 이후에는 문을 닫습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌점은 어떻게 받나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사칙, 교칙을 어기면 받습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌점은 줄일 수는 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위반한 규칙에 따라 한 달, 혹은 1년마다 초기화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 확진 시 시험을 볼 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리된 공간에서, 방역 복장을 입고 시험볼 수는 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매점 메뉴는 뭐가 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 많이 있는데, 꽤 자주 메뉴가 추가되기에 직접 확인하시는게 더 좋을거 같아요. 귀찮은게 아니라;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 사이트에서 확인하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 일과표 알려줘요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,7 +826,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -609,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -621,185 +874,494 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="96" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="96" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="96" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="96" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D152" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{A8435893-DDF7-4BB8-AA4F-F7B6C5CEB626}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{17B1D5CD-CABB-49AA-9191-DB6C8E389A1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Chatbot/train_tools/qna/train_data.xlsx
+++ b/Chatbot/train_tools/qna/train_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GwangjuScienceAcademy\R&amp;E\GSA2022RNE\Chatbot\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0680A48-E20E-4ADE-AAD2-C16E52BA420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A986F99-755C-46E0-AA06-589D2BF97B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7356" yWindow="3300" windowWidth="23040" windowHeight="13644" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>욕설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,18 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>욕하지 마요 ㅠㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죄송해요, 무슨 말인지 모르겠어요. 조금 더 공부 할게요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도서관 사용시간은 언제인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1984년에 개교하였고, 2012년에 영재학교로 전환됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023년 신입생은 몇기에요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022년 기준으로, 타키온(물리), 프사이(물리), 켐텍(화학), 로크(화학), 바이오켐(생명), 테라(지학), 이데아(정보), SCV(공학), 다빈치(융합)이 존재합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생회 기구 알려주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,149 +243,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기상곡 신청하고 싶어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.gsatime.kr/wake.php</t>
+  </si>
+  <si>
+    <t>취침시간은 몇 시 인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 10분 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상시간은 몇 시 인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 기상, 8시 10분까지 퇴실입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인1특기 종류는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구, 야구 등과 같은 체육 과목과, 피아노, 댄스 등과 같은 예술 과목이 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;E 활동은 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀을 짜서, 주제를 정하고, 관련 내용을 배워서, 결과를 도출합니다. 팀은 1학년은 랜덤, 2학년은 직접 정해서 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력단련실은 언제 사용하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하실때 언제든 사용하세요 ^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;E 주제는 어떻게 정하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1지망, 2지망 순으로 과목을 정하고, 과목과 관련된 주제를 선정하여 제출하면 선생님들이 그걸 보시고 선택하십니다. 원하시는 과목 걸리시길 빌게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨래는 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사 시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유시간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 오전 1차, 일요일 야간 2차에 자유시간을 가집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 오후 4시, 격주로 이루어집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 이후 일요일 야간 1차까지 들어오셔야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일, 목요일 아침에 1층에 빨래를 맡기시면, 그날 혹은 그 다음날 빨래가 돌아옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸메는 언제 바뀌죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 끝날때마다 바꿉니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매점은 언제 이용하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제든지요^^ 다만 10시 이후에는 문을 닫습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌점은 어떻게 받나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사칙, 교칙을 어기면 받습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌점은 줄일 수는 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위반한 규칙에 따라 한 달, 혹은 1년마다 초기화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 확진 시 시험을 볼 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리된 공간에서, 방역 복장을 입고 시험볼 수는 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매점 메뉴는 뭐가 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 많이 있는데, 꽤 자주 메뉴가 추가되기에 직접 확인하시는게 더 좋을거 같아요. 귀찮은게 아니라;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 사이트에서 확인하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 일과표 알려줘요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 기준으로, 타키온(물리), 프사이(물리), 켐텍(화학), 로크(화학), 바이오켐(생명), CELL(생명), 테라(지학), 이데아(정보), SCV(공학), 다빈치(융합)이 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://main.gsatime.kr/petition/</t>
-  </si>
-  <si>
-    <t>기상곡 신청하고 싶어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://main.gsatime.kr/wake.php</t>
-  </si>
-  <si>
-    <t>취침시간은 몇 시 인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12시 10분 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상시간은 몇 시 인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7시 기상, 8시 10분까지 퇴실입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인1특기 종류는 무엇이 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축구, 야구 등과 같은 체육 과목과, 피아노, 댄스 등과 같은 예술 과목이 존재합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R&amp;E 활동은 어떻게 하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀을 짜서, 주제를 정하고, 관련 내용을 배워서, 결과를 도출합니다. 팀은 1학년은 랜덤, 2학년은 직접 정해서 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력단련실은 언제 사용하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하실때 언제든 사용하세요 ^^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R&amp;E 주제는 어떻게 정하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1지망, 2지망 순으로 과목을 정하고, 과목과 관련된 주제를 선정하여 제출하면 선생님들이 그걸 보시고 선택하십니다. 원하시는 과목 걸리시길 빌게요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨래는 어떻게 하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입사 시간은 언제인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴사 시간은 언제인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유시간은 언제인가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토요일 오전 1차, 일요일 야간 2차에 자유시간을 가집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금요일 오후 4시, 격주로 이루어집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴사 이후 일요일 야간 1차까지 들어오셔야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일, 목요일 아침에 1층에 빨래를 맡기시면, 그날 혹은 그 다음날 빨래가 돌아옵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룸메는 언제 바뀌죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험 끝날때마다 바꿉니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매점은 언제 이용하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제든지요^^ 다만 10시 이후에는 문을 닫습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벌점은 어떻게 받나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사칙, 교칙을 어기면 받습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벌점은 줄일 수는 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위반한 규칙에 따라 한 달, 혹은 1년마다 초기화됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코로나 확진 시 시험을 볼 수 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격리된 공간에서, 방역 복장을 입고 시험볼 수는 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매점 메뉴는 뭐가 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청 많이 있는데, 꽤 자주 메뉴가 추가되기에 직접 확인하시는게 더 좋을거 같아요. 귀찮은게 아니라;;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희 사이트에서 확인하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루 일과표 알려줘요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 죄송해요. 무슨 말인지 모르겠어요. 조금 더 공부할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송해요. 무슨 말인지 모르겠어요. 조금 더 공부할게요.</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1984년에 개교하였고, 2012년에 영재학교로 전환되었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -862,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -874,464 +870,470 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="76.8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="96" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="96" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="96" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="96" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+      <c r="D27" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.45">
@@ -1358,10 +1360,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" xr:uid="{A8435893-DDF7-4BB8-AA4F-F7B6C5CEB626}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{17B1D5CD-CABB-49AA-9191-DB6C8E389A1A}"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{A8435893-DDF7-4BB8-AA4F-F7B6C5CEB626}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{17B1D5CD-CABB-49AA-9191-DB6C8E389A1A}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{75B0A929-34B0-405F-8850-65EA822A7495}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>